--- a/biology/Botanique/Côtes-de-meuse_(IGP)/Côtes-de-meuse_(IGP).xlsx
+++ b/biology/Botanique/Côtes-de-meuse_(IGP)/Côtes-de-meuse_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-meuse_(IGP)</t>
+          <t>Côtes-de-meuse_(IGP)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le côtes-de-meuse, appelé vin de pays des côtes de Meuse jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone produit sur une partie du département de la Meuse, en Grand Est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-meuse_(IGP)</t>
+          <t>Côtes-de-meuse_(IGP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La viticulture meusienne connaît son extension maximale au XIXe siècle : 13 729 hectares de vigne en Meuse en 1862[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La viticulture meusienne connaît son extension maximale au XIXe siècle : 13 729 hectares de vigne en Meuse en 1862.
 Mais les ravages causés par le phylloxéra et par la Première Guerre mondiale, la concurrence des vergers (notamment des mirabelliers) et des vins du Midi font pratiquement disparaître les vignes du département. Seuls les cantons de Fresnes et de Vigneulles gardent quelques parcelles viticoles.
-En 1974, quelques agriculteurs replantent sur les côtes. L'appellation « vin de pays de la Meuse » est accordée en 1981, transformée en « vin de pays des côtes de Meuse » le 14 octobre 2006[5].
+En 1974, quelques agriculteurs replantent sur les côtes. L'appellation « vin de pays de la Meuse » est accordée en 1981, transformée en « vin de pays des côtes de Meuse » le 14 octobre 2006.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-meuse_(IGP)</t>
+          <t>Côtes-de-meuse_(IGP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les vignes se trouvent le long des côtes de Meuse, exposées principalement en plein est et située à une altitude variant entre 260 et 350 mètres d’altitude, sur les territoires délimités de 15 communes du département de la Meuse[6].
-Géologie</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignes se trouvent le long des côtes de Meuse, exposées principalement en plein est et située à une altitude variant entre 260 et 350 mètres d’altitude, sur les territoires délimités de 15 communes du département de la Meuse.
+</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-meuse_(IGP)</t>
+          <t>Côtes-de-meuse_(IGP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,58 +594,171 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Terroir viticole
-Du nord vers le sud : Trésauvaux, Combres-sous-les-Côtes, Herbeuville, Hannonville-sous-les-Côtes, Thillot, Saint-Maurice-sous-les-Côtes, Hattonville, Vigneulles-lès-Hattonchâtel (y compris Billy-sous-les-Côtes, Creuë et Viéville-sous-les-Côtes), Heudicourt-sous-les-Côtes, Buxières-sous-les-Côtes et Buxerulles.
-Encépagement
-Les cépages utilisés sont :
+          <t>Terroir viticole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du nord vers le sud : Trésauvaux, Combres-sous-les-Côtes, Herbeuville, Hannonville-sous-les-Côtes, Thillot, Saint-Maurice-sous-les-Côtes, Hattonville, Vigneulles-lès-Hattonchâtel (y compris Billy-sous-les-Côtes, Creuë et Viéville-sous-les-Côtes), Heudicourt-sous-les-Côtes, Buxières-sous-les-Côtes et Buxerulles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les cépages utilisés sont :
 le pinot noir N et le gamay N pour les vins rouges et gris.
-l'auxerrois B, le chardonnay B, le pinot blanc B et le pinot gris G pour les vins blancs et mousseux (ils peuvent aussi entrer dans la composition du vin gris).
-Types de vin
-Il existe six labellisations différentes :
-Côtes de Meuse blanc[7]
-Côtes de Meuse rosé[8]
-Côtes de Meuse rouge[9]
-Côtes de Meuse primeur ou nouveau blanc[10]
-Côtes de Meuse primeur ou nouveau rosé[11]
-Côtes de Meuse primeur ou nouveau rouge[12]
-Liste de producteurs
-Domaine de la Goulotte (Philippe et Evelyne Antoine)[13], à Saint-Maurice-sous-les-Côtes ;
-Domaine Montgrignon (Daniel et François Pierson)[14], à Billy-sous-les-Côtes ;
-Domaine de Muzy (Véronique et Jean-Marc Liénard)[15], à Combres-sous-les-Côtes ;
+l'auxerrois B, le chardonnay B, le pinot blanc B et le pinot gris G pour les vins blancs et mousseux (ils peuvent aussi entrer dans la composition du vin gris).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Côtes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il existe six labellisations différentes :
+Côtes de Meuse blanc
+Côtes de Meuse rosé
+Côtes de Meuse rouge
+Côtes de Meuse primeur ou nouveau blanc
+Côtes de Meuse primeur ou nouveau rosé
+Côtes de Meuse primeur ou nouveau rouge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côtes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste de producteurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Domaine de la Goulotte (Philippe et Evelyne Antoine), à Saint-Maurice-sous-les-Côtes ;
+Domaine Montgrignon (Daniel et François Pierson), à Billy-sous-les-Côtes ;
+Domaine de Muzy (Véronique et Jean-Marc Liénard), à Combres-sous-les-Côtes ;
 Domaine de coustille, à Buxières-sous-les-Côtes ;
 GAEC l'aumonière, à Viéville-sous-les-Côtes ;
 Domaine de GRUY, à Creuë.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>C%C3%B4tes-de-meuse_(IGP)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côtes-de-meuse_(IGP)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-meuse_(IGP)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liens internes
-Vignoble de Lorraine</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Vignoble de Lorraine</t>
         </is>
       </c>
     </row>
